--- a/utils/cleaners/Marco_consolidacion/Dimension 4.xlsx
+++ b/utils/cleaners/Marco_consolidacion/Dimension 4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:K113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -504,7 +504,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -514,7 +514,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -534,7 +534,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -543,7 +543,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -567,7 +567,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -596,11 +596,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -640,7 +640,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -649,26 +649,26 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -683,17 +683,17 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1A</t>
         </is>
       </c>
     </row>
@@ -702,7 +702,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -726,7 +726,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -736,7 +736,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -755,11 +755,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -789,7 +789,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -808,21 +808,21 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -852,7 +852,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -870,22 +870,22 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -900,12 +900,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -914,7 +914,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -923,17 +923,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -948,7 +948,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -967,7 +967,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -976,22 +976,22 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -1020,7 +1020,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1059,12 +1059,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -1073,7 +1073,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1082,17 +1082,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1126,7 +1126,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1150,17 +1150,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1179,11 +1179,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -1232,7 +1232,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1241,17 +1241,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1285,16 +1285,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -1338,7 +1338,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1391,11 +1391,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1415,7 +1415,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1435,7 +1435,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -1444,7 +1444,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1468,12 +1468,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1483,12 +1483,12 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -1497,21 +1497,21 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -1550,21 +1550,21 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -1603,7 +1603,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1617,17 +1617,17 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1637,7 +1637,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1647,7 +1647,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -1656,16 +1656,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1700,7 +1700,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -1709,26 +1709,26 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1748,12 +1748,12 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -1762,7 +1762,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1815,21 +1815,21 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1859,7 +1859,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -1868,7 +1868,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1882,17 +1882,17 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1902,7 +1902,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -1921,7 +1921,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -1974,7 +1974,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2027,7 +2027,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>121</v>
+        <v>57</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -2036,7 +2036,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2056,12 +2056,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2080,16 +2080,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2099,12 +2099,12 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2124,7 +2124,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -2133,7 +2133,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>130</v>
+        <v>61</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2186,16 +2186,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2215,12 +2215,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2230,7 +2230,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -2239,11 +2239,11 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2273,7 +2273,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2283,7 +2283,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -2292,31 +2292,31 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>148</v>
+        <v>64</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2336,7 +2336,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -2345,7 +2345,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -2354,12 +2354,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2369,7 +2369,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2398,11 +2398,11 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>151</v>
+        <v>66</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2412,7 +2412,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2432,7 +2432,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2442,7 +2442,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -2451,11 +2451,11 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2480,7 +2480,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2495,7 +2495,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -2504,7 +2504,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>162</v>
+        <v>70</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2538,7 +2538,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2557,7 +2557,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>163</v>
+        <v>72</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2601,7 +2601,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -2610,11 +2610,11 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2654,7 +2654,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -2663,7 +2663,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>166</v>
+        <v>74</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2692,7 +2692,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -2716,11 +2716,11 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>167</v>
+        <v>75</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2730,17 +2730,17 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2760,7 +2760,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -2769,7 +2769,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>176</v>
+        <v>76</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -2788,17 +2788,17 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2822,7 +2822,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2846,7 +2846,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2875,7 +2875,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>179</v>
+        <v>88</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2909,7 +2909,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2919,7 +2919,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2928,11 +2928,11 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>183</v>
+        <v>90</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2952,7 +2952,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2972,7 +2972,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -2981,21 +2981,21 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>185</v>
+        <v>92</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3015,7 +3015,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3025,7 +3025,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -3034,11 +3034,11 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>186</v>
+        <v>93</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -3048,7 +3048,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3068,7 +3068,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -3078,7 +3078,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -3087,11 +3087,11 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>206</v>
+        <v>94</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -3111,7 +3111,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -3121,7 +3121,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -3131,7 +3131,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -3140,26 +3140,26 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>211</v>
+        <v>96</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3174,7 +3174,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -3184,7 +3184,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -3193,11 +3193,11 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>213</v>
+        <v>97</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3207,17 +3207,17 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -3227,7 +3227,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -3237,7 +3237,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2B</t>
         </is>
       </c>
     </row>
@@ -3246,26 +3246,26 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>214</v>
+        <v>98</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1B</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3275,7 +3275,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3290,7 +3290,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>1B</t>
         </is>
       </c>
     </row>
@@ -3299,11 +3299,11 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>217</v>
+        <v>107</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -3313,17 +3313,17 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3343,7 +3343,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>1B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -3352,7 +3352,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>218</v>
+        <v>109</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3386,7 +3386,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3405,7 +3405,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>226</v>
+        <v>110</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3429,7 +3429,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3439,7 +3439,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3449,7 +3449,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -3458,26 +3458,26 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>228</v>
+        <v>111</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2B</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>1A</t>
+          <t>2A</t>
         </is>
       </c>
     </row>
@@ -3511,7 +3511,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>229</v>
+        <v>112</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -3520,17 +3520,17 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -3564,7 +3564,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>231</v>
+        <v>114</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -3578,12 +3578,12 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -3617,7 +3617,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>235</v>
+        <v>116</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -3641,12 +3641,12 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2A</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2A</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3670,7 +3670,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>237</v>
+        <v>117</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>2B</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -3723,49 +3723,2699 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
+        <v>118</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>119</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>121</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>129</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>130</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>131</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>132</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>133</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>148</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>149</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>150</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>151</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>152</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>155</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>161</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>162</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>163</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>165</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>166</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>167</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>168</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>176</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>177</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>178</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>179</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>181</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>183</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>184</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>185</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>186</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>187</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>188</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>203</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>206</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>211</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>213</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>214</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>216</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>217</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>218</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>226</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>228</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>229</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>230</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>231</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>235</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>237</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>238</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>1B</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>250</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>251</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
         <v>252</v>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>2B</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
         <is>
           <t>2B</t>
         </is>
